--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2127,28 +2127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2100.272676564751</v>
+        <v>2212.421206560019</v>
       </c>
       <c r="AB2" t="n">
-        <v>2873.685733566944</v>
+        <v>3027.1322999506</v>
       </c>
       <c r="AC2" t="n">
-        <v>2599.425200398573</v>
+        <v>2738.227041850066</v>
       </c>
       <c r="AD2" t="n">
-        <v>2100272.676564751</v>
+        <v>2212421.206560018</v>
       </c>
       <c r="AE2" t="n">
-        <v>2873685.733566944</v>
+        <v>3027132.2999506</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.15978119866788e-06</v>
+        <v>1.672015282399404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.20416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2599425.200398573</v>
+        <v>2738227.041850066</v>
       </c>
     </row>
     <row r="3">
@@ -2233,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>699.6697141763901</v>
+        <v>768.5659748311148</v>
       </c>
       <c r="AB3" t="n">
-        <v>957.3189701854259</v>
+        <v>1051.585873501724</v>
       </c>
       <c r="AC3" t="n">
-        <v>865.9537912765416</v>
+        <v>951.2239936447619</v>
       </c>
       <c r="AD3" t="n">
-        <v>699669.7141763901</v>
+        <v>768565.9748311148</v>
       </c>
       <c r="AE3" t="n">
-        <v>957318.9701854258</v>
+        <v>1051585.873501724</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.188849950290928e-06</v>
+        <v>3.155587081398824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>865953.7912765415</v>
+        <v>951223.9936447619</v>
       </c>
     </row>
     <row r="4">
@@ -2339,28 +2339,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>517.3907690289813</v>
+        <v>569.1909758018822</v>
       </c>
       <c r="AB4" t="n">
-        <v>707.9168758552275</v>
+        <v>778.7922040257478</v>
       </c>
       <c r="AC4" t="n">
-        <v>640.3542827911795</v>
+        <v>704.4653691152529</v>
       </c>
       <c r="AD4" t="n">
-        <v>517390.7690289812</v>
+        <v>569190.9758018822</v>
       </c>
       <c r="AE4" t="n">
-        <v>707916.8758552276</v>
+        <v>778792.2040257477</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.574860145470199e-06</v>
+        <v>3.712084243314399e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.80416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>640354.2827911795</v>
+        <v>704465.3691152529</v>
       </c>
     </row>
     <row r="5">
@@ -2445,28 +2445,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>467.9354673612893</v>
+        <v>511.1023958472579</v>
       </c>
       <c r="AB5" t="n">
-        <v>640.2499502995668</v>
+        <v>699.3128462445486</v>
       </c>
       <c r="AC5" t="n">
-        <v>579.1453936394244</v>
+        <v>632.5714096907121</v>
       </c>
       <c r="AD5" t="n">
-        <v>467935.4673612894</v>
+        <v>511102.3958472579</v>
       </c>
       <c r="AE5" t="n">
-        <v>640249.9502995667</v>
+        <v>699312.8462445486</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.711407969615248e-06</v>
+        <v>3.90894038222331e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.20833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>579145.3936394244</v>
+        <v>632571.4096907121</v>
       </c>
     </row>
     <row r="6">
@@ -2551,28 +2551,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>469.4807433842073</v>
+        <v>512.6476718701758</v>
       </c>
       <c r="AB6" t="n">
-        <v>642.3642651268898</v>
+        <v>701.4271610718716</v>
       </c>
       <c r="AC6" t="n">
-        <v>581.0579212270873</v>
+        <v>634.4839372783749</v>
       </c>
       <c r="AD6" t="n">
-        <v>469480.7433842073</v>
+        <v>512647.6718701758</v>
       </c>
       <c r="AE6" t="n">
-        <v>642364.2651268898</v>
+        <v>701427.1610718716</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.710678547477721e-06</v>
+        <v>3.907888800284694e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.2125</v>
       </c>
       <c r="AH6" t="n">
-        <v>581057.9212270873</v>
+        <v>634483.9372783749</v>
       </c>
     </row>
   </sheetData>
@@ -2848,28 +2848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1268.155462123437</v>
+        <v>1360.661780373899</v>
       </c>
       <c r="AB2" t="n">
-        <v>1735.14625034773</v>
+        <v>1861.717476068744</v>
       </c>
       <c r="AC2" t="n">
-        <v>1569.5463275076</v>
+        <v>1684.037773089631</v>
       </c>
       <c r="AD2" t="n">
-        <v>1268155.462123437</v>
+        <v>1360661.780373899</v>
       </c>
       <c r="AE2" t="n">
-        <v>1735146.25034773</v>
+        <v>1861717.476068744</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.53209313278791e-06</v>
+        <v>2.242926710662155e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.52083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1569546.3275076</v>
+        <v>1684037.773089631</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>535.989062757073</v>
+        <v>594.8256867875227</v>
       </c>
       <c r="AB3" t="n">
-        <v>733.3638818328143</v>
+        <v>813.8667465199331</v>
       </c>
       <c r="AC3" t="n">
-        <v>663.3726622333625</v>
+        <v>736.1924465012228</v>
       </c>
       <c r="AD3" t="n">
-        <v>535989.0627570731</v>
+        <v>594825.6867875227</v>
       </c>
       <c r="AE3" t="n">
-        <v>733363.8818328143</v>
+        <v>813866.7465199331</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.496442533744839e-06</v>
+        <v>3.65469795584844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>663372.6622333624</v>
+        <v>736192.4465012228</v>
       </c>
     </row>
     <row r="4">
@@ -3060,28 +3060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>443.021526270765</v>
+        <v>493.355475400191</v>
       </c>
       <c r="AB4" t="n">
-        <v>606.161596974003</v>
+        <v>675.0307267499986</v>
       </c>
       <c r="AC4" t="n">
-        <v>548.3103849119478</v>
+        <v>610.6067416005533</v>
       </c>
       <c r="AD4" t="n">
-        <v>443021.5262707651</v>
+        <v>493355.475400191</v>
       </c>
       <c r="AE4" t="n">
-        <v>606161.596974003</v>
+        <v>675030.7267499986</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.744396534648162e-06</v>
+        <v>4.017693285401033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.45625</v>
       </c>
       <c r="AH4" t="n">
-        <v>548310.3849119479</v>
+        <v>610606.7416005533</v>
       </c>
     </row>
     <row r="5">
@@ -3166,28 +3166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>443.9085533334871</v>
+        <v>494.242502462913</v>
       </c>
       <c r="AB5" t="n">
-        <v>607.3752665340915</v>
+        <v>676.244396310087</v>
       </c>
       <c r="AC5" t="n">
-        <v>549.4082235526175</v>
+        <v>611.7045802412229</v>
       </c>
       <c r="AD5" t="n">
-        <v>443908.5533334871</v>
+        <v>494242.502462913</v>
       </c>
       <c r="AE5" t="n">
-        <v>607375.2665340914</v>
+        <v>676244.3963100871</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.748320335027643e-06</v>
+        <v>4.02343758154733e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.43958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>549408.2235526175</v>
+        <v>611704.5802412229</v>
       </c>
     </row>
   </sheetData>
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>424.1306871740617</v>
+        <v>478.3311161131485</v>
       </c>
       <c r="AB2" t="n">
-        <v>580.3143175168912</v>
+        <v>654.4737355455152</v>
       </c>
       <c r="AC2" t="n">
-        <v>524.9299335293383</v>
+        <v>592.0116807847074</v>
       </c>
       <c r="AD2" t="n">
-        <v>424130.6871740617</v>
+        <v>478331.1161131485</v>
       </c>
       <c r="AE2" t="n">
-        <v>580314.3175168912</v>
+        <v>654473.7355455152</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.650946511352957e-06</v>
+        <v>4.101341467118631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.23333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>524929.9335293383</v>
+        <v>592011.6807847074</v>
       </c>
     </row>
     <row r="3">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>422.2853052585443</v>
+        <v>468.8891271725344</v>
       </c>
       <c r="AB3" t="n">
-        <v>577.789384567576</v>
+        <v>641.5547897258137</v>
       </c>
       <c r="AC3" t="n">
-        <v>522.6459766369402</v>
+        <v>580.325701022184</v>
       </c>
       <c r="AD3" t="n">
-        <v>422285.3052585443</v>
+        <v>468889.1271725344</v>
       </c>
       <c r="AE3" t="n">
-        <v>577789.384567576</v>
+        <v>641554.7897258138</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.667112873002676e-06</v>
+        <v>4.126352824051892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.15416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>522645.9766369401</v>
+        <v>580325.701022184</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>595.1363941627535</v>
+        <v>659.2227774021385</v>
       </c>
       <c r="AB2" t="n">
-        <v>814.2918700581657</v>
+        <v>901.9776868979806</v>
       </c>
       <c r="AC2" t="n">
-        <v>736.576996845631</v>
+        <v>815.894202394071</v>
       </c>
       <c r="AD2" t="n">
-        <v>595136.3941627535</v>
+        <v>659222.7774021385</v>
       </c>
       <c r="AE2" t="n">
-        <v>814291.8700581657</v>
+        <v>901977.6868979805</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.272834833177205e-06</v>
+        <v>3.434921574639746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.76666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>736576.996845631</v>
+        <v>815894.202394071</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>419.9411835420822</v>
+        <v>467.9847252665292</v>
       </c>
       <c r="AB3" t="n">
-        <v>574.5820538197611</v>
+        <v>640.3173471386211</v>
       </c>
       <c r="AC3" t="n">
-        <v>519.7447490341797</v>
+        <v>579.2063582187515</v>
       </c>
       <c r="AD3" t="n">
-        <v>419941.1835420822</v>
+        <v>467984.7252665291</v>
       </c>
       <c r="AE3" t="n">
-        <v>574582.053819761</v>
+        <v>640317.3471386211</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.747442957542108e-06</v>
+        <v>4.152193970364774e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.21666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>519744.7490341797</v>
+        <v>579206.3582187515</v>
       </c>
     </row>
   </sheetData>
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>432.9571757041724</v>
+        <v>485.78360581814</v>
       </c>
       <c r="AB2" t="n">
-        <v>592.3911085209804</v>
+        <v>664.6705607405262</v>
       </c>
       <c r="AC2" t="n">
-        <v>535.85413254988</v>
+        <v>601.2353352944407</v>
       </c>
       <c r="AD2" t="n">
-        <v>432957.1757041724</v>
+        <v>485783.60581814</v>
       </c>
       <c r="AE2" t="n">
-        <v>592391.1085209805</v>
+        <v>664670.5607405262</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.530062239850228e-06</v>
+        <v>3.998732984902412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.40208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>535854.13254988</v>
+        <v>601235.3352944407</v>
       </c>
     </row>
   </sheetData>
@@ -4566,28 +4566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1428.142946737111</v>
+        <v>1521.358955913955</v>
       </c>
       <c r="AB2" t="n">
-        <v>1954.04818494584</v>
+        <v>2081.590441101684</v>
       </c>
       <c r="AC2" t="n">
-        <v>1767.556568698461</v>
+        <v>1882.926370933472</v>
       </c>
       <c r="AD2" t="n">
-        <v>1428142.946737111</v>
+        <v>1521358.955913955</v>
       </c>
       <c r="AE2" t="n">
-        <v>1954048.18494584</v>
+        <v>2081590.441101684</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.434277877904735e-06</v>
+        <v>2.091014052682066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.72291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1767556.568698461</v>
+        <v>1882926.370933472</v>
       </c>
     </row>
     <row r="3">
@@ -4672,28 +4672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>575.8141808300203</v>
+        <v>635.0481185425309</v>
       </c>
       <c r="AB3" t="n">
-        <v>787.8543653404298</v>
+        <v>868.9008521355872</v>
       </c>
       <c r="AC3" t="n">
-        <v>712.6626504728853</v>
+        <v>785.9741743177715</v>
       </c>
       <c r="AD3" t="n">
-        <v>575814.1808300203</v>
+        <v>635048.1185425309</v>
       </c>
       <c r="AE3" t="n">
-        <v>787854.3653404298</v>
+        <v>868900.8521355873</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.408210885299483e-06</v>
+        <v>3.510897630478273e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>712662.6504728852</v>
+        <v>785974.1743177715</v>
       </c>
     </row>
     <row r="4">
@@ -4778,28 +4778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>448.996342759706</v>
+        <v>499.6708464737558</v>
       </c>
       <c r="AB4" t="n">
-        <v>614.3366044844722</v>
+        <v>683.6716960673581</v>
       </c>
       <c r="AC4" t="n">
-        <v>555.7051811793131</v>
+        <v>618.4230289339406</v>
       </c>
       <c r="AD4" t="n">
-        <v>448996.342759706</v>
+        <v>499670.8464737558</v>
       </c>
       <c r="AE4" t="n">
-        <v>614336.6044844722</v>
+        <v>683671.6960673581</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.735896269083557e-06</v>
+        <v>3.988625658572788e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.38958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>555705.1811793131</v>
+        <v>618423.0289339406</v>
       </c>
     </row>
     <row r="5">
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>449.5590876131255</v>
+        <v>500.2335913271754</v>
       </c>
       <c r="AB5" t="n">
-        <v>615.1065768194716</v>
+        <v>684.4416684023574</v>
       </c>
       <c r="AC5" t="n">
-        <v>556.401668435323</v>
+        <v>619.1195161899506</v>
       </c>
       <c r="AD5" t="n">
-        <v>449559.0876131256</v>
+        <v>500233.5913271754</v>
       </c>
       <c r="AE5" t="n">
-        <v>615106.5768194715</v>
+        <v>684441.6684023575</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.739485702771745e-06</v>
+        <v>3.993858644731743e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.37291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>556401.6684353231</v>
+        <v>619119.5161899505</v>
       </c>
     </row>
   </sheetData>
@@ -5181,28 +5181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>451.3665236563145</v>
+        <v>510.849419504665</v>
       </c>
       <c r="AB2" t="n">
-        <v>617.5795905522133</v>
+        <v>698.9667128520844</v>
       </c>
       <c r="AC2" t="n">
-        <v>558.6386612083086</v>
+        <v>632.2583107834234</v>
       </c>
       <c r="AD2" t="n">
-        <v>451366.5236563145</v>
+        <v>510849.419504665</v>
       </c>
       <c r="AE2" t="n">
-        <v>617579.5905522133</v>
+        <v>698966.7128520843</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.402894652262319e-06</v>
+        <v>3.850001667298463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.51875</v>
       </c>
       <c r="AH2" t="n">
-        <v>558638.6612083085</v>
+        <v>632258.3107834235</v>
       </c>
     </row>
   </sheetData>
@@ -5478,28 +5478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>878.8481272642297</v>
+        <v>952.7764504613936</v>
       </c>
       <c r="AB2" t="n">
-        <v>1202.478779765901</v>
+        <v>1303.630773051696</v>
       </c>
       <c r="AC2" t="n">
-        <v>1087.71589271461</v>
+        <v>1179.214081728923</v>
       </c>
       <c r="AD2" t="n">
-        <v>878848.1272642297</v>
+        <v>952776.4504613936</v>
       </c>
       <c r="AE2" t="n">
-        <v>1202478.779765901</v>
+        <v>1303630.773051696</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.868207852574655e-06</v>
+        <v>2.773995720719337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.33958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1087715.89271461</v>
+        <v>1179214.081728923</v>
       </c>
     </row>
     <row r="3">
@@ -5584,28 +5584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>433.2341683702819</v>
+        <v>482.6334453021194</v>
       </c>
       <c r="AB3" t="n">
-        <v>592.7701021068053</v>
+        <v>660.3603721472332</v>
       </c>
       <c r="AC3" t="n">
-        <v>536.1969555197946</v>
+        <v>597.3365050511039</v>
       </c>
       <c r="AD3" t="n">
-        <v>433234.1683702819</v>
+        <v>482633.4453021194</v>
       </c>
       <c r="AE3" t="n">
-        <v>592770.1021068053</v>
+        <v>660360.3721472332</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.731641743989309e-06</v>
+        <v>4.056059660557413e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.85833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>536196.9555197946</v>
+        <v>597336.5050511039</v>
       </c>
     </row>
     <row r="4">
@@ -5690,28 +5690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>426.5353779037406</v>
+        <v>475.934654835578</v>
       </c>
       <c r="AB4" t="n">
-        <v>583.6045214607057</v>
+        <v>651.1947915011336</v>
       </c>
       <c r="AC4" t="n">
-        <v>527.9061250265855</v>
+        <v>589.0456745578947</v>
       </c>
       <c r="AD4" t="n">
-        <v>426535.3779037406</v>
+        <v>475934.6548355781</v>
       </c>
       <c r="AE4" t="n">
-        <v>583604.5214607057</v>
+        <v>651194.7915011336</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.761184772868975e-06</v>
+        <v>4.099926426011984e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.73125</v>
       </c>
       <c r="AH4" t="n">
-        <v>527906.1250265855</v>
+        <v>589045.6745578947</v>
       </c>
     </row>
   </sheetData>
@@ -5987,28 +5987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1122.114612521127</v>
+        <v>1205.529081537002</v>
       </c>
       <c r="AB2" t="n">
-        <v>1535.326717054279</v>
+        <v>1649.458073548452</v>
       </c>
       <c r="AC2" t="n">
-        <v>1388.797290023199</v>
+        <v>1492.036110037933</v>
       </c>
       <c r="AD2" t="n">
-        <v>1122114.612521127</v>
+        <v>1205529.081537002</v>
       </c>
       <c r="AE2" t="n">
-        <v>1535326.717054279</v>
+        <v>1649458.073548452</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.638816634129167e-06</v>
+        <v>2.409785594348128e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.36666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1388797.290023199</v>
+        <v>1492036.110037933</v>
       </c>
     </row>
     <row r="3">
@@ -6093,28 +6093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>499.3377264547357</v>
+        <v>549.4035118385954</v>
       </c>
       <c r="AB3" t="n">
-        <v>683.2159065611168</v>
+        <v>751.7181228698792</v>
       </c>
       <c r="AC3" t="n">
-        <v>618.0107393384704</v>
+        <v>679.9752002661887</v>
       </c>
       <c r="AD3" t="n">
-        <v>499337.7264547357</v>
+        <v>549403.5118385954</v>
       </c>
       <c r="AE3" t="n">
-        <v>683215.9065611168</v>
+        <v>751718.1228698791</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.583684233354703e-06</v>
+        <v>3.799159049414326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.28541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>618010.7393384704</v>
+        <v>679975.2002661887</v>
       </c>
     </row>
     <row r="4">
@@ -6199,28 +6199,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>437.1778588820877</v>
+        <v>487.3288956119679</v>
       </c>
       <c r="AB4" t="n">
-        <v>598.1660334484043</v>
+        <v>666.7848944098158</v>
       </c>
       <c r="AC4" t="n">
-        <v>541.0779067473884</v>
+        <v>603.1478799258192</v>
       </c>
       <c r="AD4" t="n">
-        <v>437177.8588820877</v>
+        <v>487328.8956119679</v>
       </c>
       <c r="AE4" t="n">
-        <v>598166.0334484043</v>
+        <v>666784.8944098158</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.752791462496971e-06</v>
+        <v>4.047821502675126e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.52916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>541077.9067473884</v>
+        <v>603147.8799258192</v>
       </c>
     </row>
   </sheetData>
@@ -6496,28 +6496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1840.695024772062</v>
+        <v>1952.175621625769</v>
       </c>
       <c r="AB2" t="n">
-        <v>2518.520138626414</v>
+        <v>2671.052809418483</v>
       </c>
       <c r="AC2" t="n">
-        <v>2278.156111361124</v>
+        <v>2416.131278133745</v>
       </c>
       <c r="AD2" t="n">
-        <v>1840695.024772062</v>
+        <v>1952175.621625769</v>
       </c>
       <c r="AE2" t="n">
-        <v>2518520.138626414</v>
+        <v>2671052.809418483</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.2469893665838e-06</v>
+        <v>1.804109931677598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.56666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2278156.111361124</v>
+        <v>2416131.278133745</v>
       </c>
     </row>
     <row r="3">
@@ -6602,28 +6602,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>659.4838469045756</v>
+        <v>719.5578133628798</v>
       </c>
       <c r="AB3" t="n">
-        <v>902.3348937087885</v>
+        <v>984.5307448933935</v>
       </c>
       <c r="AC3" t="n">
-        <v>816.2173178881982</v>
+        <v>890.5685123983462</v>
       </c>
       <c r="AD3" t="n">
-        <v>659483.8469045756</v>
+        <v>719557.8133628798</v>
       </c>
       <c r="AE3" t="n">
-        <v>902334.8937087886</v>
+        <v>984530.7448933935</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.259727075034582e-06</v>
+        <v>3.269311004727552e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.55625</v>
       </c>
       <c r="AH3" t="n">
-        <v>816217.3178881982</v>
+        <v>890568.5123983462</v>
       </c>
     </row>
     <row r="4">
@@ -6708,28 +6708,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.0260380237525</v>
+        <v>540.5180092737276</v>
       </c>
       <c r="AB4" t="n">
-        <v>669.1069995302585</v>
+        <v>739.5605862599197</v>
       </c>
       <c r="AC4" t="n">
-        <v>605.2483665926618</v>
+        <v>668.9779618870742</v>
       </c>
       <c r="AD4" t="n">
-        <v>489026.0380237525</v>
+        <v>540518.0092737275</v>
       </c>
       <c r="AE4" t="n">
-        <v>669106.9995302585</v>
+        <v>739560.5862599197</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.641323467285168e-06</v>
+        <v>3.821394173678421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.59791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>605248.3665926618</v>
+        <v>668977.9618870743</v>
       </c>
     </row>
     <row r="5">
@@ -6814,28 +6814,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>461.0444011532589</v>
+        <v>512.3657802026416</v>
       </c>
       <c r="AB5" t="n">
-        <v>630.8212895013545</v>
+        <v>701.0414644561687</v>
       </c>
       <c r="AC5" t="n">
-        <v>570.6165909945848</v>
+        <v>634.1350510063462</v>
       </c>
       <c r="AD5" t="n">
-        <v>461044.4011532589</v>
+        <v>512365.7802026417</v>
       </c>
       <c r="AE5" t="n">
-        <v>630821.2895013544</v>
+        <v>701041.4644561687</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.721466062189433e-06</v>
+        <v>3.937342276598738e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.25625</v>
       </c>
       <c r="AH5" t="n">
-        <v>570616.5909945848</v>
+        <v>634135.0510063462</v>
       </c>
     </row>
   </sheetData>
@@ -7111,28 +7111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>682.2349296663153</v>
+        <v>747.0014035319068</v>
       </c>
       <c r="AB2" t="n">
-        <v>933.4639288503344</v>
+        <v>1022.080275688406</v>
       </c>
       <c r="AC2" t="n">
-        <v>844.3754416057102</v>
+        <v>924.5343686753801</v>
       </c>
       <c r="AD2" t="n">
-        <v>682234.9296663153</v>
+        <v>747001.4035319068</v>
       </c>
       <c r="AE2" t="n">
-        <v>933463.9288503344</v>
+        <v>1022080.275688406</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.126824622207706e-06</v>
+        <v>3.193819811919713e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>844375.4416057102</v>
+        <v>924534.36867538</v>
       </c>
     </row>
     <row r="3">
@@ -7217,28 +7217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>424.6352193461641</v>
+        <v>473.1248233993372</v>
       </c>
       <c r="AB3" t="n">
-        <v>581.0046406931502</v>
+        <v>647.3502561690545</v>
       </c>
       <c r="AC3" t="n">
-        <v>525.5543732305299</v>
+        <v>585.56805628207</v>
       </c>
       <c r="AD3" t="n">
-        <v>424635.2193461641</v>
+        <v>473124.8233993372</v>
       </c>
       <c r="AE3" t="n">
-        <v>581004.6406931502</v>
+        <v>647350.2561690545</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.753147349235288e-06</v>
+        <v>4.134359014517358e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.0375</v>
       </c>
       <c r="AH3" t="n">
-        <v>525554.3732305299</v>
+        <v>585568.05628207</v>
       </c>
     </row>
   </sheetData>
@@ -7514,28 +7514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>452.1548449933264</v>
+        <v>506.9915967372973</v>
       </c>
       <c r="AB2" t="n">
-        <v>618.6582065837958</v>
+        <v>693.6882695466431</v>
       </c>
       <c r="AC2" t="n">
-        <v>559.6143356396839</v>
+        <v>627.483634698712</v>
       </c>
       <c r="AD2" t="n">
-        <v>452154.8449933264</v>
+        <v>506991.5967372973</v>
       </c>
       <c r="AE2" t="n">
-        <v>618658.2065837958</v>
+        <v>693688.2695466431</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.592116845047603e-06</v>
+        <v>3.97565078381332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.31875</v>
       </c>
       <c r="AH2" t="n">
-        <v>559614.3356396839</v>
+        <v>627483.6346987119</v>
       </c>
     </row>
     <row r="3">
@@ -7620,28 +7620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>414.9285846580099</v>
+        <v>469.8505877480014</v>
       </c>
       <c r="AB3" t="n">
-        <v>567.723594886318</v>
+        <v>642.8703025018146</v>
       </c>
       <c r="AC3" t="n">
-        <v>513.5408517954369</v>
+        <v>581.5156631051771</v>
       </c>
       <c r="AD3" t="n">
-        <v>414928.5846580099</v>
+        <v>469850.5877480014</v>
       </c>
       <c r="AE3" t="n">
-        <v>567723.594886318</v>
+        <v>642870.3025018147</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.706294604045033e-06</v>
+        <v>4.150770550470229e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.75625</v>
       </c>
       <c r="AH3" t="n">
-        <v>513540.8517954369</v>
+        <v>581515.6631051771</v>
       </c>
     </row>
   </sheetData>
@@ -12946,28 +12946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.0314614772435</v>
+        <v>474.7092821078834</v>
       </c>
       <c r="AB2" t="n">
-        <v>576.0738201903165</v>
+        <v>649.5181824754723</v>
       </c>
       <c r="AC2" t="n">
-        <v>521.0941433160367</v>
+        <v>587.5290787445069</v>
       </c>
       <c r="AD2" t="n">
-        <v>421031.4614772435</v>
+        <v>474709.2821078834</v>
       </c>
       <c r="AE2" t="n">
-        <v>576073.8201903165</v>
+        <v>649518.1824754722</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.611484245330919e-06</v>
+        <v>4.080392620848192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.675</v>
       </c>
       <c r="AH2" t="n">
-        <v>521094.1433160367</v>
+        <v>587529.0787445069</v>
       </c>
     </row>
   </sheetData>
@@ -13243,28 +13243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>489.9052042886596</v>
+        <v>555.3604175205497</v>
       </c>
       <c r="AB2" t="n">
-        <v>670.3099135999828</v>
+        <v>759.8686240240603</v>
       </c>
       <c r="AC2" t="n">
-        <v>606.336476231872</v>
+        <v>687.3478290295152</v>
       </c>
       <c r="AD2" t="n">
-        <v>489905.2042886596</v>
+        <v>555360.4175205497</v>
       </c>
       <c r="AE2" t="n">
-        <v>670309.9135999827</v>
+        <v>759868.6240240603</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.196668814641961e-06</v>
+        <v>3.57985873953746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.45</v>
       </c>
       <c r="AH2" t="n">
-        <v>606336.476231872</v>
+        <v>687347.8290295152</v>
       </c>
     </row>
   </sheetData>
@@ -13540,28 +13540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>993.0199984801455</v>
+        <v>1067.609507887116</v>
       </c>
       <c r="AB2" t="n">
-        <v>1358.693770870988</v>
+        <v>1460.750428298517</v>
       </c>
       <c r="AC2" t="n">
-        <v>1229.021944317745</v>
+        <v>1321.338457597808</v>
       </c>
       <c r="AD2" t="n">
-        <v>993019.9984801456</v>
+        <v>1067609.507887116</v>
       </c>
       <c r="AE2" t="n">
-        <v>1358693.770870988</v>
+        <v>1460750.428298517</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.750883713202398e-06</v>
+        <v>2.586721989267013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.30833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1229021.944317745</v>
+        <v>1321338.457597808</v>
       </c>
     </row>
     <row r="3">
@@ -13646,28 +13646,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>466.043716462038</v>
+        <v>515.7416389513445</v>
       </c>
       <c r="AB3" t="n">
-        <v>637.6615732610517</v>
+        <v>705.6604633285209</v>
       </c>
       <c r="AC3" t="n">
-        <v>576.8040476726551</v>
+        <v>638.3132191091267</v>
       </c>
       <c r="AD3" t="n">
-        <v>466043.716462038</v>
+        <v>515741.6389513445</v>
       </c>
       <c r="AE3" t="n">
-        <v>637661.5732610517</v>
+        <v>705660.4633285209</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.668562812028226e-06</v>
+        <v>3.942483474809544e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.0125</v>
       </c>
       <c r="AH3" t="n">
-        <v>576804.0476726551</v>
+        <v>638313.2191091267</v>
       </c>
     </row>
     <row r="4">
@@ -13752,28 +13752,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>431.811525821456</v>
+        <v>481.5946996567832</v>
       </c>
       <c r="AB4" t="n">
-        <v>590.8235798089422</v>
+        <v>658.9391145290608</v>
       </c>
       <c r="AC4" t="n">
-        <v>534.4362065780782</v>
+        <v>596.0508902652622</v>
       </c>
       <c r="AD4" t="n">
-        <v>431811.525821456</v>
+        <v>481594.6996567833</v>
       </c>
       <c r="AE4" t="n">
-        <v>590823.5798089422</v>
+        <v>658939.1145290608</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757037909584372e-06</v>
+        <v>4.073194885639014e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.62708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>534436.2065780782</v>
+        <v>596050.8902652622</v>
       </c>
     </row>
   </sheetData>
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1622.274785641578</v>
+        <v>1716.093686397903</v>
       </c>
       <c r="AB2" t="n">
-        <v>2219.667931427213</v>
+        <v>2348.035090439801</v>
       </c>
       <c r="AC2" t="n">
-        <v>2007.825939375307</v>
+        <v>2123.941916896173</v>
       </c>
       <c r="AD2" t="n">
-        <v>1622274.785641578</v>
+        <v>1716093.686397903</v>
       </c>
       <c r="AE2" t="n">
-        <v>2219667.931427213</v>
+        <v>2348035.090439802</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.339356990824039e-06</v>
+        <v>1.944972722940515e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2007825.939375307</v>
+        <v>2123941.916896173</v>
       </c>
     </row>
     <row r="3">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>620.6210302775048</v>
+        <v>680.1533179618591</v>
       </c>
       <c r="AB3" t="n">
-        <v>849.1610734931646</v>
+        <v>930.6157758820702</v>
       </c>
       <c r="AC3" t="n">
-        <v>768.1183324440282</v>
+        <v>841.7991123593295</v>
       </c>
       <c r="AD3" t="n">
-        <v>620621.0302775048</v>
+        <v>680153.3179618591</v>
       </c>
       <c r="AE3" t="n">
-        <v>849161.0734931646</v>
+        <v>930615.7758820702</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.333680912053531e-06</v>
+        <v>3.38889911284853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.2375</v>
       </c>
       <c r="AH3" t="n">
-        <v>768118.3324440281</v>
+        <v>841799.1123593295</v>
       </c>
     </row>
     <row r="4">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>464.4205725593901</v>
+        <v>515.4238774030377</v>
       </c>
       <c r="AB4" t="n">
-        <v>635.4407161653936</v>
+        <v>705.2256879594773</v>
       </c>
       <c r="AC4" t="n">
-        <v>574.7951460612142</v>
+        <v>637.9199380910936</v>
       </c>
       <c r="AD4" t="n">
-        <v>464420.57255939</v>
+        <v>515423.8774030378</v>
       </c>
       <c r="AE4" t="n">
-        <v>635440.7161653936</v>
+        <v>705225.6879594773</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.69976885740331e-06</v>
+        <v>3.920520684080693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.44166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>574795.1460612142</v>
+        <v>637919.9380910937</v>
       </c>
     </row>
     <row r="5">
@@ -14367,28 +14367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>455.7071230848944</v>
+        <v>506.7104279285421</v>
       </c>
       <c r="AB5" t="n">
-        <v>623.5185901841281</v>
+        <v>693.303561978212</v>
       </c>
       <c r="AC5" t="n">
-        <v>564.0108510507918</v>
+        <v>627.1356430806713</v>
       </c>
       <c r="AD5" t="n">
-        <v>455707.1230848944</v>
+        <v>506710.4279285421</v>
       </c>
       <c r="AE5" t="n">
-        <v>623518.5901841281</v>
+        <v>693303.561978212</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.730609802171537e-06</v>
+        <v>3.965306948485833e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.3125</v>
       </c>
       <c r="AH5" t="n">
-        <v>564010.8510507918</v>
+        <v>627135.6430806713</v>
       </c>
     </row>
   </sheetData>
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>573.4475110665899</v>
+        <v>651.719814739462</v>
       </c>
       <c r="AB2" t="n">
-        <v>784.6161833600033</v>
+        <v>891.7118023755554</v>
       </c>
       <c r="AC2" t="n">
-        <v>709.7335160358535</v>
+        <v>806.6080794822066</v>
       </c>
       <c r="AD2" t="n">
-        <v>573447.5110665899</v>
+        <v>651719.814739462</v>
       </c>
       <c r="AE2" t="n">
-        <v>784616.1833600033</v>
+        <v>891711.8023755554</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.839691170208918e-06</v>
+        <v>3.066655573701139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.575</v>
       </c>
       <c r="AH2" t="n">
-        <v>709733.5160358535</v>
+        <v>806608.0794822066</v>
       </c>
     </row>
   </sheetData>
@@ -14961,28 +14961,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>512.9422022845313</v>
+        <v>576.3118483819151</v>
       </c>
       <c r="AB2" t="n">
-        <v>701.8301505785576</v>
+        <v>788.5352960404751</v>
       </c>
       <c r="AC2" t="n">
-        <v>634.8484660321421</v>
+        <v>713.2785941026102</v>
       </c>
       <c r="AD2" t="n">
-        <v>512942.2022845313</v>
+        <v>576311.848381915</v>
       </c>
       <c r="AE2" t="n">
-        <v>701830.1505785575</v>
+        <v>788535.2960404751</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.437411988806407e-06</v>
+        <v>3.709513445628677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>634848.4660321422</v>
+        <v>713278.5941026103</v>
       </c>
     </row>
     <row r="3">
@@ -15067,28 +15067,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.4565276613645</v>
+        <v>465.0265221702392</v>
       </c>
       <c r="AB3" t="n">
-        <v>571.182438028482</v>
+        <v>636.2698031555674</v>
       </c>
       <c r="AC3" t="n">
-        <v>516.6695878026296</v>
+        <v>575.5451061526767</v>
       </c>
       <c r="AD3" t="n">
-        <v>417456.5276613645</v>
+        <v>465026.5221702392</v>
       </c>
       <c r="AE3" t="n">
-        <v>571182.438028482</v>
+        <v>636269.8031555674</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.73069833021712e-06</v>
+        <v>4.155867870682214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.45833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>516669.5878026296</v>
+        <v>575545.1061526766</v>
       </c>
     </row>
   </sheetData>
@@ -15364,28 +15364,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>776.7626891824614</v>
+        <v>842.0072070606905</v>
       </c>
       <c r="AB2" t="n">
-        <v>1062.800979690752</v>
+        <v>1152.071407436727</v>
       </c>
       <c r="AC2" t="n">
-        <v>961.3687458396096</v>
+        <v>1042.119329253341</v>
       </c>
       <c r="AD2" t="n">
-        <v>776762.6891824614</v>
+        <v>842007.2070606905</v>
       </c>
       <c r="AE2" t="n">
-        <v>1062800.979690752</v>
+        <v>1152071.407436728</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.991853774727436e-06</v>
+        <v>2.973659801217387e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.44375</v>
       </c>
       <c r="AH2" t="n">
-        <v>961368.7458396095</v>
+        <v>1042119.329253341</v>
       </c>
     </row>
     <row r="3">
@@ -15470,28 +15470,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>421.5587789637279</v>
+        <v>478.551645325803</v>
       </c>
       <c r="AB3" t="n">
-        <v>576.7953192389302</v>
+        <v>654.7754733433313</v>
       </c>
       <c r="AC3" t="n">
-        <v>521.746783508081</v>
+        <v>592.2846211505918</v>
       </c>
       <c r="AD3" t="n">
-        <v>421558.7789637279</v>
+        <v>478551.645325803</v>
       </c>
       <c r="AE3" t="n">
-        <v>576795.3192389302</v>
+        <v>654775.4733433314</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.754226412950922e-06</v>
+        <v>4.1118140656505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.89166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>521746.7835080809</v>
+        <v>592284.6211505918</v>
       </c>
     </row>
     <row r="4">
@@ -15576,28 +15576,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>422.7330818733546</v>
+        <v>471.7304087915418</v>
       </c>
       <c r="AB4" t="n">
-        <v>578.4020522864696</v>
+        <v>645.442356585438</v>
       </c>
       <c r="AC4" t="n">
-        <v>523.2001722086271</v>
+        <v>583.84224395696</v>
       </c>
       <c r="AD4" t="n">
-        <v>422733.0818733546</v>
+        <v>471730.4087915418</v>
       </c>
       <c r="AE4" t="n">
-        <v>578402.0522864696</v>
+        <v>645442.356585438</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.758471424547546e-06</v>
+        <v>4.118151488859346e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>523200.1722086271</v>
+        <v>583842.24395696</v>
       </c>
     </row>
   </sheetData>
